--- a/biology/Médecine/Thériogénologie/Thériogénologie.xlsx
+++ b/biology/Médecine/Thériogénologie/Thériogénologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9riog%C3%A9nologie</t>
+          <t>Thériogénologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La thériogénologie est la branche de la médecine vétérinaire consacrée à la reproduction, incluant la physiologie et la pathologie des systèmes reproducteurs mâle et femelle et les pratiques cliniques obstétrique et gynécologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9riog%C3%A9nologie</t>
+          <t>Thériogénologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorland's Medical Dictionary (25th Edition)
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9riog%C3%A9nologie</t>
+          <t>Thériogénologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Liens utiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Site de thériogénologie des animaux de production de la faculté de médecine vétérinaire de l'université de Liège en Belgique [1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Site de thériogénologie des animaux de production de la faculté de médecine vétérinaire de l'université de Liège en Belgique 
  Portail de la médecine   Portail de la zoologie                    </t>
         </is>
       </c>
